--- a/pengxiang-edu-vue/src/docs/数据库字段与页面展示设置1.xlsx
+++ b/pengxiang-edu-vue/src/docs/数据库字段与页面展示设置1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022_ChenEnlai\duYan\lab_Project\pengxiang\pengxiang-edu-vue\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782D1AAE-293F-4790-AF17-E47CD30A244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E49E286-95AC-4243-9D66-5579B10C9129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="589">
   <si>
     <t>班级变更</t>
   </si>
@@ -56,6 +56,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>填报说明：</t>
@@ -66,6 +67,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -1261,6 +1263,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2142,6 +2145,18 @@
     <t>返费和退费的关系
 ，返费和实缴应缴的关系，为什么要在记录里添加返费</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>户口所在地-省</t>
+  </si>
+  <si>
+    <t>户口所在地-市</t>
+  </si>
+  <si>
+    <t>户口所在地-县</t>
   </si>
 </sst>
 </file>
@@ -2160,6 +2175,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2167,6 +2183,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2174,12 +2191,14 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2188,12 +2207,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2202,12 +2223,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2215,6 +2238,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2223,6 +2247,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2231,6 +2256,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2562,7 +2588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2836,12 +2862,69 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2849,14 +2932,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2866,69 +2964,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2986,16 +3024,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3422,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64C59A9-CA3A-4B5B-8FFE-440363B87DDA}">
   <dimension ref="A1:W169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q118" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:W126"/>
+    <sheetView tabSelected="1" topLeftCell="G58" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3432,69 +3461,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="102" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
     </row>
     <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="101" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="95" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="114" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="101" t="s">
         <v>438</v>
       </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114" t="s">
+      <c r="G3" s="101"/>
+      <c r="H3" s="101" t="s">
         <v>436</v>
       </c>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114" t="s">
+      <c r="I3" s="101"/>
+      <c r="J3" s="101" t="s">
         <v>439</v>
       </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="117" t="s">
+      <c r="K3" s="101"/>
+      <c r="L3" s="110" t="s">
         <v>465</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
       <c r="Q3" s="61" t="s">
         <v>460</v>
       </c>
@@ -3542,10 +3571,10 @@
       <c r="L4" s="71" t="s">
         <v>482</v>
       </c>
-      <c r="M4" s="119" t="s">
+      <c r="M4" s="94" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="119"/>
+      <c r="N4" s="94"/>
       <c r="O4" s="71" t="s">
         <v>480</v>
       </c>
@@ -4694,7 +4723,7 @@
       <c r="T24" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="U24" s="142" t="s">
+      <c r="U24" s="92" t="s">
         <v>569</v>
       </c>
       <c r="V24" s="38" t="s">
@@ -4765,7 +4794,7 @@
       <c r="M26" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P26" s="141" t="s">
+      <c r="P26" s="91" t="s">
         <v>558</v>
       </c>
       <c r="Q26" s="42" t="s">
@@ -4937,13 +4966,13 @@
       <c r="I32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="108" t="s">
+      <c r="J32" s="103" t="s">
         <v>493</v>
       </c>
-      <c r="K32" s="108" t="s">
+      <c r="K32" s="103" t="s">
         <v>494</v>
       </c>
-      <c r="L32" s="116" t="s">
+      <c r="L32" s="109" t="s">
         <v>468</v>
       </c>
       <c r="M32" s="14" t="s">
@@ -4960,9 +4989,9 @@
       <c r="I33" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="92"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="100"/>
       <c r="M33" s="14" t="s">
         <v>228</v>
       </c>
@@ -4977,9 +5006,9 @@
       <c r="I34" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="92"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="100"/>
       <c r="M34" s="66" t="s">
         <v>442</v>
       </c>
@@ -5000,16 +5029,16 @@
       <c r="I35" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="116" t="s">
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="109" t="s">
         <v>475</v>
       </c>
-      <c r="N35" s="116" t="s">
+      <c r="N35" s="109" t="s">
         <v>476</v>
       </c>
-      <c r="O35" s="116" t="s">
+      <c r="O35" s="109" t="s">
         <v>477</v>
       </c>
       <c r="T35" s="14" t="s">
@@ -5023,12 +5052,12 @@
       <c r="I36" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
       <c r="T36" s="38" t="s">
         <v>376</v>
       </c>
@@ -5037,12 +5066,12 @@
       <c r="I37" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
       <c r="T37" s="61" t="s">
         <v>548</v>
       </c>
@@ -5051,12 +5080,12 @@
       <c r="I38" s="75" t="s">
         <v>495</v>
       </c>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
       <c r="T38" s="38" t="s">
         <v>408</v>
       </c>
@@ -5065,12 +5094,12 @@
       <c r="I39" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
       <c r="T39" s="38" t="s">
         <v>414</v>
       </c>
@@ -5079,12 +5108,12 @@
       <c r="I40" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
       <c r="T40" s="38" t="s">
         <v>415</v>
       </c>
@@ -5093,12 +5122,12 @@
       <c r="I41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
       <c r="T41" s="38" t="s">
         <v>416</v>
       </c>
@@ -5119,59 +5148,59 @@
       <c r="L42" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="92"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
       <c r="T42" s="38" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="H43" s="108" t="s">
+      <c r="H43" s="103" t="s">
         <v>504</v>
       </c>
       <c r="I43" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="J43" s="111" t="s">
+      <c r="J43" s="106" t="s">
         <v>492</v>
       </c>
-      <c r="K43" s="111" t="s">
+      <c r="K43" s="106" t="s">
         <v>492</v>
       </c>
-      <c r="L43" s="91" t="s">
+      <c r="L43" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
       <c r="T43" s="38" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="H44" s="109"/>
+      <c r="H44" s="104"/>
       <c r="I44" s="75" t="s">
         <v>496</v>
       </c>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
       <c r="T44" s="38" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="H45" s="109"/>
+      <c r="H45" s="104"/>
       <c r="I45" s="76" t="s">
         <v>371</v>
       </c>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="92"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="100"/>
       <c r="M45" s="66" t="s">
         <v>444</v>
       </c>
@@ -5204,53 +5233,53 @@
       <c r="G46" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="H46" s="109"/>
+      <c r="H46" s="104"/>
       <c r="I46" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M46" s="91" t="s">
+      <c r="M46" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="N46" s="91" t="s">
+      <c r="N46" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="Q46" s="91" t="s">
+      <c r="Q46" s="99" t="s">
         <v>553</v>
       </c>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
       <c r="T46" s="38" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="103" t="s">
         <v>443</v>
       </c>
-      <c r="B47" s="108" t="s">
+      <c r="B47" s="103" t="s">
         <v>445</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="103" t="s">
         <v>469</v>
       </c>
-      <c r="D47" s="108" t="s">
+      <c r="D47" s="103" t="s">
         <v>470</v>
       </c>
-      <c r="E47" s="108" t="s">
+      <c r="E47" s="103" t="s">
         <v>471</v>
       </c>
-      <c r="F47" s="108" t="s">
+      <c r="F47" s="103" t="s">
         <v>472</v>
       </c>
-      <c r="G47" s="108" t="s">
+      <c r="G47" s="103" t="s">
         <v>473</v>
       </c>
-      <c r="H47" s="109"/>
+      <c r="H47" s="104"/>
       <c r="I47" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100"/>
       <c r="Q47" s="86" t="s">
         <v>554</v>
       </c>
@@ -5265,19 +5294,19 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A48" s="109"/>
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
       <c r="Q48" s="43" t="s">
         <v>550</v>
       </c>
@@ -5292,14 +5321,14 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A49" s="109"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
       <c r="I49" s="15" t="s">
         <v>62</v>
       </c>
@@ -5317,14 +5346,14 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A50" s="109"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
+      <c r="A50" s="104"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
       <c r="I50" s="77" t="s">
         <v>63</v>
       </c>
@@ -5343,14 +5372,14 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A51" s="109"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
       <c r="I51" s="75" t="s">
         <v>497</v>
       </c>
@@ -5365,17 +5394,20 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A52" s="109"/>
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="110"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="105"/>
       <c r="I52" s="38" t="s">
         <v>364</v>
       </c>
+      <c r="J52" s="42" t="s">
+        <v>585</v>
+      </c>
       <c r="Q52" s="42" t="s">
         <v>566</v>
       </c>
@@ -5387,19 +5419,22 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A53" s="109"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
       <c r="H53" s="66" t="s">
         <v>444</v>
       </c>
       <c r="I53" s="38" t="s">
         <v>366</v>
       </c>
+      <c r="J53" s="91" t="s">
+        <v>586</v>
+      </c>
       <c r="Q53" s="42" t="s">
         <v>325</v>
       </c>
@@ -5411,19 +5446,22 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A54" s="109"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="111" t="s">
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="106" t="s">
         <v>505</v>
       </c>
       <c r="I54" s="38" t="s">
         <v>367</v>
       </c>
+      <c r="J54" s="145" t="s">
+        <v>587</v>
+      </c>
       <c r="Q54" s="42" t="s">
         <v>322</v>
       </c>
@@ -5435,17 +5473,20 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A55" s="109"/>
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="112"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="107"/>
       <c r="I55" s="38" t="s">
         <v>338</v>
       </c>
+      <c r="J55" s="91" t="s">
+        <v>588</v>
+      </c>
       <c r="Q55" s="42" t="s">
         <v>326</v>
       </c>
@@ -5457,14 +5498,14 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A56" s="110"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="113"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="108"/>
       <c r="I56" s="38" t="s">
         <v>337</v>
       </c>
@@ -5514,25 +5555,25 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="99" t="s">
         <v>447</v>
       </c>
-      <c r="B58" s="91" t="s">
+      <c r="B58" s="99" t="s">
         <v>446</v>
       </c>
-      <c r="C58" s="91" t="s">
+      <c r="C58" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="D58" s="91" t="s">
+      <c r="D58" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="E58" s="91" t="s">
+      <c r="E58" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="F58" s="91" t="s">
+      <c r="F58" s="99" t="s">
         <v>461</v>
       </c>
-      <c r="G58" s="111" t="s">
+      <c r="G58" s="106" t="s">
         <v>461</v>
       </c>
       <c r="I58" s="38" t="s">
@@ -5549,13 +5590,13 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A59" s="92"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="112"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="107"/>
       <c r="I59" s="38" t="s">
         <v>350</v>
       </c>
@@ -5570,13 +5611,13 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A60" s="92"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="113"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="108"/>
       <c r="I60" s="38" t="s">
         <v>368</v>
       </c>
@@ -5724,7 +5765,7 @@
       <c r="Q75" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="R75" s="143" t="s">
+      <c r="R75" s="97" t="s">
         <v>584</v>
       </c>
     </row>
@@ -5735,7 +5776,7 @@
       <c r="Q76" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="R76" s="97"/>
+      <c r="R76" s="98"/>
     </row>
     <row r="77" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I77" s="14" t="s">
@@ -5744,7 +5785,7 @@
       <c r="Q77" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="R77" s="97"/>
+      <c r="R77" s="98"/>
     </row>
     <row r="78" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I78" s="14" t="s">
@@ -5753,7 +5794,7 @@
       <c r="Q78" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R78" s="97"/>
+      <c r="R78" s="98"/>
     </row>
     <row r="79" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I79" s="14" t="s">
@@ -5762,7 +5803,7 @@
       <c r="Q79" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="R79" s="97"/>
+      <c r="R79" s="98"/>
     </row>
     <row r="80" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I80" s="14" t="s">
@@ -5827,7 +5868,7 @@
       </c>
     </row>
     <row r="88" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I88" s="108" t="s">
+      <c r="I88" s="103" t="s">
         <v>503</v>
       </c>
       <c r="Q88" s="38" t="s">
@@ -5835,55 +5876,55 @@
       </c>
     </row>
     <row r="89" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I89" s="109"/>
+      <c r="I89" s="104"/>
       <c r="Q89" s="38" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="90" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I90" s="109"/>
+      <c r="I90" s="104"/>
       <c r="Q90" s="38" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="91" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I91" s="109"/>
-      <c r="Q91" s="144" t="s">
+      <c r="I91" s="104"/>
+      <c r="Q91" s="93" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="92" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I92" s="109"/>
+      <c r="I92" s="104"/>
       <c r="Q92" s="90" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="93" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I93" s="109"/>
+      <c r="I93" s="104"/>
       <c r="Q93" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="94" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I94" s="109"/>
+      <c r="I94" s="104"/>
       <c r="Q94" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="95" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I95" s="109"/>
+      <c r="I95" s="104"/>
       <c r="Q95" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="96" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I96" s="109"/>
+      <c r="I96" s="104"/>
       <c r="Q96" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="I97" s="110"/>
+      <c r="I97" s="105"/>
       <c r="Q97" s="14" t="s">
         <v>119</v>
       </c>
@@ -5897,7 +5938,7 @@
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="I99" s="111" t="s">
+      <c r="I99" s="106" t="s">
         <v>501</v>
       </c>
       <c r="Q99" s="14" t="s">
@@ -5905,57 +5946,65 @@
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="I100" s="112"/>
+      <c r="I100" s="107"/>
       <c r="Q100" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="I101" s="113"/>
+      <c r="I101" s="108"/>
       <c r="Q101" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A102" s="107" t="s">
+      <c r="A102" s="125" t="s">
         <v>515</v>
       </c>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="100"/>
+      <c r="E102" s="100"/>
+      <c r="F102" s="100"/>
+      <c r="I102" s="42" t="s">
+        <v>585</v>
+      </c>
       <c r="Q102" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A103" s="92"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
+      <c r="A103" s="100"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="100"/>
+      <c r="D103" s="100"/>
+      <c r="E103" s="100"/>
+      <c r="F103" s="100"/>
+      <c r="I103" s="91" t="s">
+        <v>586</v>
+      </c>
       <c r="Q103" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="114" t="s">
+      <c r="A104" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="B104" s="114"/>
-      <c r="C104" s="114" t="s">
+      <c r="B104" s="101"/>
+      <c r="C104" s="101" t="s">
         <v>508</v>
       </c>
-      <c r="D104" s="114"/>
-      <c r="E104" s="114" t="s">
+      <c r="D104" s="101"/>
+      <c r="E104" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="F104" s="114"/>
+      <c r="F104" s="101"/>
       <c r="G104"/>
       <c r="H104"/>
-      <c r="I104"/>
+      <c r="I104" s="145" t="s">
+        <v>587</v>
+      </c>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -5993,7 +6042,9 @@
       </c>
       <c r="G105"/>
       <c r="H105"/>
-      <c r="I105"/>
+      <c r="I105" s="91" t="s">
+        <v>588</v>
+      </c>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -6318,10 +6369,10 @@
       </c>
     </row>
     <row r="121" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="93" t="s">
+      <c r="A121" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="B121" s="94"/>
+      <c r="B121" s="113"/>
       <c r="C121" s="52"/>
       <c r="D121" s="14" t="s">
         <v>147</v>
@@ -6337,10 +6388,10 @@
       </c>
     </row>
     <row r="122" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="101" t="s">
+      <c r="A122" s="114" t="s">
         <v>517</v>
       </c>
-      <c r="B122" s="102"/>
+      <c r="B122" s="115"/>
       <c r="C122" s="52"/>
       <c r="D122" s="14" t="s">
         <v>148</v>
@@ -6356,8 +6407,8 @@
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A123" s="103"/>
-      <c r="B123" s="104"/>
+      <c r="A123" s="116"/>
+      <c r="B123" s="117"/>
       <c r="C123" s="52"/>
       <c r="D123" s="14" t="s">
         <v>149</v>
@@ -6373,8 +6424,8 @@
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A124" s="103"/>
-      <c r="B124" s="104"/>
+      <c r="A124" s="116"/>
+      <c r="B124" s="117"/>
       <c r="C124" s="52"/>
       <c r="D124" s="14" t="s">
         <v>150</v>
@@ -6385,13 +6436,13 @@
       <c r="F124" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="Q124" s="144" t="s">
+      <c r="Q124" s="93" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A125" s="103"/>
-      <c r="B125" s="104"/>
+      <c r="A125" s="116"/>
+      <c r="B125" s="117"/>
       <c r="C125" s="52"/>
       <c r="D125" s="14" t="s">
         <v>151</v>
@@ -6404,8 +6455,8 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A126" s="103"/>
-      <c r="B126" s="104"/>
+      <c r="A126" s="116"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="52"/>
       <c r="D126" s="14" t="s">
         <v>152</v>
@@ -6418,8 +6469,8 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A127" s="103"/>
-      <c r="B127" s="104"/>
+      <c r="A127" s="116"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="52"/>
       <c r="D127" s="14" t="s">
         <v>153</v>
@@ -6432,8 +6483,8 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A128" s="103"/>
-      <c r="B128" s="104"/>
+      <c r="A128" s="116"/>
+      <c r="B128" s="117"/>
       <c r="C128" s="52"/>
       <c r="D128" s="15" t="s">
         <v>154</v>
@@ -6446,8 +6497,8 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" s="103"/>
-      <c r="B129" s="104"/>
+      <c r="A129" s="116"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="52"/>
       <c r="D129" s="15" t="s">
         <v>155</v>
@@ -6460,8 +6511,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="103"/>
-      <c r="B130" s="104"/>
+      <c r="A130" s="116"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="52"/>
       <c r="D130" s="15" t="s">
         <v>156</v>
@@ -6474,8 +6525,8 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="105"/>
-      <c r="B131" s="106"/>
+      <c r="A131" s="118"/>
+      <c r="B131" s="119"/>
       <c r="C131" s="52"/>
       <c r="D131" s="52"/>
       <c r="E131" s="8" t="s">
@@ -6486,14 +6537,14 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="93" t="s">
+      <c r="A132" s="112" t="s">
         <v>444</v>
       </c>
-      <c r="B132" s="94"/>
-      <c r="C132" s="93" t="s">
+      <c r="B132" s="113"/>
+      <c r="C132" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="D132" s="94"/>
+      <c r="D132" s="113"/>
       <c r="E132" s="72" t="s">
         <v>404</v>
       </c>
@@ -6502,14 +6553,14 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="95" t="s">
+      <c r="A133" s="120" t="s">
         <v>516</v>
       </c>
-      <c r="B133" s="96"/>
-      <c r="C133" s="101" t="s">
+      <c r="B133" s="121"/>
+      <c r="C133" s="114" t="s">
         <v>518</v>
       </c>
-      <c r="D133" s="102"/>
+      <c r="D133" s="115"/>
       <c r="E133" s="72" t="s">
         <v>520</v>
       </c>
@@ -6518,10 +6569,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="97"/>
-      <c r="B134" s="98"/>
-      <c r="C134" s="103"/>
-      <c r="D134" s="104"/>
+      <c r="A134" s="98"/>
+      <c r="B134" s="122"/>
+      <c r="C134" s="116"/>
+      <c r="D134" s="117"/>
       <c r="E134" s="72" t="s">
         <v>521</v>
       </c>
@@ -6530,10 +6581,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="99"/>
-      <c r="B135" s="100"/>
-      <c r="C135" s="103"/>
-      <c r="D135" s="104"/>
+      <c r="A135" s="123"/>
+      <c r="B135" s="124"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="117"/>
       <c r="E135" s="72" t="s">
         <v>522</v>
       </c>
@@ -6542,8 +6593,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C136" s="103"/>
-      <c r="D136" s="104"/>
+      <c r="C136" s="116"/>
+      <c r="D136" s="117"/>
       <c r="E136" s="72" t="s">
         <v>523</v>
       </c>
@@ -6552,8 +6603,8 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C137" s="103"/>
-      <c r="D137" s="104"/>
+      <c r="C137" s="116"/>
+      <c r="D137" s="117"/>
       <c r="E137" s="72" t="s">
         <v>524</v>
       </c>
@@ -6562,8 +6613,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C138" s="103"/>
-      <c r="D138" s="104"/>
+      <c r="C138" s="116"/>
+      <c r="D138" s="117"/>
       <c r="E138" s="72" t="s">
         <v>525</v>
       </c>
@@ -6572,8 +6623,8 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C139" s="103"/>
-      <c r="D139" s="104"/>
+      <c r="C139" s="116"/>
+      <c r="D139" s="117"/>
       <c r="E139" s="72" t="s">
         <v>526</v>
       </c>
@@ -6582,8 +6633,8 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C140" s="103"/>
-      <c r="D140" s="104"/>
+      <c r="C140" s="116"/>
+      <c r="D140" s="117"/>
       <c r="E140" s="72" t="s">
         <v>527</v>
       </c>
@@ -6592,8 +6643,8 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C141" s="103"/>
-      <c r="D141" s="104"/>
+      <c r="C141" s="116"/>
+      <c r="D141" s="117"/>
       <c r="E141" s="72" t="s">
         <v>528</v>
       </c>
@@ -6602,8 +6653,8 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C142" s="105"/>
-      <c r="D142" s="106"/>
+      <c r="C142" s="118"/>
+      <c r="D142" s="119"/>
       <c r="E142" s="72" t="s">
         <v>529</v>
       </c>
@@ -6612,10 +6663,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C143" s="93" t="s">
+      <c r="C143" s="112" t="s">
         <v>444</v>
       </c>
-      <c r="D143" s="94"/>
+      <c r="D143" s="113"/>
       <c r="E143" s="38" t="s">
         <v>530</v>
       </c>
@@ -6624,10 +6675,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C144" s="95" t="s">
+      <c r="C144" s="120" t="s">
         <v>516</v>
       </c>
-      <c r="D144" s="96"/>
+      <c r="D144" s="121"/>
       <c r="E144" s="38" t="s">
         <v>531</v>
       </c>
@@ -6636,15 +6687,15 @@
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C145" s="97"/>
-      <c r="D145" s="98"/>
+      <c r="C145" s="98"/>
+      <c r="D145" s="122"/>
       <c r="F145" s="38" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C146" s="99"/>
-      <c r="D146" s="100"/>
+      <c r="C146" s="123"/>
+      <c r="D146" s="124"/>
       <c r="F146" s="38" t="s">
         <v>521</v>
       </c>
@@ -6690,82 +6741,107 @@
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E155" s="93" t="s">
+      <c r="E155" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="F155" s="94"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E156" s="101" t="s">
+      <c r="E156" s="114" t="s">
         <v>536</v>
       </c>
-      <c r="F156" s="102"/>
+      <c r="F156" s="115"/>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E157" s="103"/>
-      <c r="F157" s="104"/>
+      <c r="E157" s="116"/>
+      <c r="F157" s="117"/>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E158" s="103"/>
-      <c r="F158" s="104"/>
+      <c r="E158" s="116"/>
+      <c r="F158" s="117"/>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E159" s="103"/>
-      <c r="F159" s="104"/>
+      <c r="E159" s="116"/>
+      <c r="F159" s="117"/>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E160" s="103"/>
-      <c r="F160" s="104"/>
+      <c r="E160" s="116"/>
+      <c r="F160" s="117"/>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E161" s="103"/>
-      <c r="F161" s="104"/>
+      <c r="E161" s="116"/>
+      <c r="F161" s="117"/>
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E162" s="103"/>
-      <c r="F162" s="104"/>
+      <c r="E162" s="116"/>
+      <c r="F162" s="117"/>
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E163" s="103"/>
-      <c r="F163" s="104"/>
+      <c r="E163" s="116"/>
+      <c r="F163" s="117"/>
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E164" s="103"/>
-      <c r="F164" s="104"/>
+      <c r="E164" s="116"/>
+      <c r="F164" s="117"/>
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E165" s="105"/>
-      <c r="F165" s="106"/>
+      <c r="E165" s="118"/>
+      <c r="F165" s="119"/>
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E166" s="93" t="s">
+      <c r="E166" s="112" t="s">
         <v>444</v>
       </c>
-      <c r="F166" s="94"/>
+      <c r="F166" s="113"/>
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E167" s="95" t="s">
+      <c r="E167" s="120" t="s">
         <v>516</v>
       </c>
-      <c r="F167" s="96"/>
+      <c r="F167" s="121"/>
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E168" s="97"/>
-      <c r="F168" s="98"/>
+      <c r="E168" s="98"/>
+      <c r="F168" s="122"/>
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E169" s="99"/>
-      <c r="F169" s="100"/>
+      <c r="E169" s="123"/>
+      <c r="F169" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R75:R79"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="N46:N48"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F169"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D146"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F165"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B135"/>
+    <mergeCell ref="A102:F103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="I88:I97"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D47:D56"/>
+    <mergeCell ref="C47:C56"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="J32:J41"/>
     <mergeCell ref="J43:J45"/>
@@ -6775,45 +6851,20 @@
     <mergeCell ref="N35:N44"/>
     <mergeCell ref="O35:O44"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G47:G56"/>
     <mergeCell ref="L32:L41"/>
     <mergeCell ref="L43:L45"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R75:R79"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="N46:N48"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G47:G56"/>
     <mergeCell ref="E47:E56"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="F47:F56"/>
-    <mergeCell ref="I88:I97"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B135"/>
-    <mergeCell ref="A102:F103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
     <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F169"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D146"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F165"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D47:D56"/>
-    <mergeCell ref="C47:C56"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6839,54 +6890,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="126" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="122"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="126"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -7313,11 +7364,11 @@
       <c r="C60" s="4"/>
     </row>
     <row r="62" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A62" s="122" t="s">
+      <c r="A62" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="137"/>
-      <c r="C62" s="122"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="126"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
@@ -7638,11 +7689,11 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="126" t="s">
         <v>320</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="126"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -7773,11 +7824,11 @@
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="127" t="s">
         <v>381</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="122"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="126"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
@@ -7913,7 +7964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -7926,11 +7977,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
@@ -7960,7 +8011,7 @@
         <v>323</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="128" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7972,7 +8023,7 @@
         <v>324</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="E5" s="125"/>
+      <c r="E5" s="129"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -7982,7 +8033,7 @@
         <v>325</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="E6" s="125"/>
+      <c r="E6" s="129"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -7992,7 +8043,7 @@
         <v>322</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="E7" s="125"/>
+      <c r="E7" s="129"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -8002,7 +8053,7 @@
         <v>326</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="E8" s="125"/>
+      <c r="E8" s="129"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -8012,7 +8063,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="E9" s="125"/>
+      <c r="E9" s="129"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -8020,7 +8071,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="E10" s="125"/>
+      <c r="E10" s="129"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
@@ -8028,18 +8079,18 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="E11" s="125"/>
+      <c r="E11" s="129"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E12" s="125"/>
+      <c r="E12" s="129"/>
     </row>
     <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="E13" s="125"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="E13" s="129"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
@@ -8051,7 +8102,7 @@
       <c r="C14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="125"/>
+      <c r="E14" s="129"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
@@ -8061,7 +8112,7 @@
         <v>349</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="E15" s="125"/>
+      <c r="E15" s="129"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
@@ -8073,7 +8124,7 @@
       <c r="C16" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="125"/>
+      <c r="E16" s="129"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
@@ -8085,7 +8136,7 @@
       <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="125"/>
+      <c r="E17" s="129"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
@@ -8625,11 +8676,11 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="123" t="s">
+      <c r="A71" s="127" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="122"/>
-      <c r="C71" s="122"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="126"/>
     </row>
     <row r="72" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
@@ -8740,24 +8791,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="132" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="130" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="133" t="s">
         <v>432</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="135" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
@@ -9249,11 +9300,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
@@ -9622,11 +9673,11 @@
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="127" t="s">
         <v>397</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
@@ -10095,11 +10146,11 @@
       <c r="C94" s="4"/>
     </row>
     <row r="96" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="122" t="s">
+      <c r="A96" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="B96" s="122"/>
-      <c r="C96" s="122"/>
+      <c r="B96" s="126"/>
+      <c r="C96" s="126"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
@@ -10720,11 +10771,11 @@
       <c r="C157" s="4"/>
     </row>
     <row r="158" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A158" s="123" t="s">
+      <c r="A158" s="127" t="s">
         <v>385</v>
       </c>
-      <c r="B158" s="122"/>
-      <c r="C158" s="122"/>
+      <c r="B158" s="126"/>
+      <c r="C158" s="126"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="13" t="s">
@@ -10736,7 +10787,7 @@
       <c r="C159" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D159" s="133" t="s">
+      <c r="D159" s="137" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10748,7 +10799,7 @@
         <v>13</v>
       </c>
       <c r="C160" s="4"/>
-      <c r="D160" s="134"/>
+      <c r="D160" s="138"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
@@ -10758,7 +10809,7 @@
         <v>110</v>
       </c>
       <c r="C161" s="4"/>
-      <c r="D161" s="134"/>
+      <c r="D161" s="138"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="4">
@@ -10768,7 +10819,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="4"/>
-      <c r="D162" s="134"/>
+      <c r="D162" s="138"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
@@ -10778,7 +10829,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="4"/>
-      <c r="D163" s="134"/>
+      <c r="D163" s="138"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
@@ -10788,7 +10839,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="4"/>
-      <c r="D164" s="134"/>
+      <c r="D164" s="138"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
@@ -10798,7 +10849,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="4"/>
-      <c r="D165" s="134"/>
+      <c r="D165" s="138"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
@@ -10887,11 +10938,11 @@
       <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A176" s="122" t="s">
+      <c r="A176" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="B176" s="122"/>
-      <c r="C176" s="122"/>
+      <c r="B176" s="126"/>
+      <c r="C176" s="126"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="13" t="s">
@@ -11116,12 +11167,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="138" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="142" t="s">
         <v>379</v>
       </c>
     </row>
@@ -11135,7 +11186,7 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="125"/>
+      <c r="D2" s="129"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -11147,7 +11198,7 @@
       <c r="C3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="129"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
@@ -11159,7 +11210,7 @@
       <c r="C4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="125"/>
+      <c r="D4" s="129"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
@@ -11169,7 +11220,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="125"/>
+      <c r="D5" s="129"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -11179,7 +11230,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="125"/>
+      <c r="D6" s="129"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -11189,7 +11240,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="125"/>
+      <c r="D7" s="129"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -11199,7 +11250,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="125"/>
+      <c r="D8" s="129"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -11207,7 +11258,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="125"/>
+      <c r="D9" s="129"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -11215,7 +11266,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="125"/>
+      <c r="D10" s="129"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
@@ -11223,7 +11274,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="125"/>
+      <c r="D11" s="129"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
@@ -11231,7 +11282,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="125"/>
+      <c r="D12" s="129"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -11239,7 +11290,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="125"/>
+      <c r="D13" s="129"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
@@ -11247,14 +11298,14 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="125"/>
+      <c r="D14" s="129"/>
     </row>
     <row r="15" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="126"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -11646,11 +11697,11 @@
   </cols>
   <sheetData>
     <row r="15" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
@@ -11873,11 +11924,11 @@
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="123" t="s">
+      <c r="A40" s="127" t="s">
         <v>380</v>
       </c>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
@@ -12122,11 +12173,11 @@
       <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="122" t="s">
+      <c r="A67" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="B67" s="122"/>
-      <c r="C67" s="122"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
     </row>
     <row r="68" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
@@ -12429,11 +12480,11 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="127" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -12565,11 +12616,11 @@
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="127" t="s">
         <v>355</v>
       </c>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
@@ -12886,11 +12937,11 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="143" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
@@ -13215,11 +13266,11 @@
       <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="126" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="122"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="126"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -13433,11 +13484,11 @@
       <c r="C28" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="137"/>
-      <c r="C30" s="122"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="126"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -13665,11 +13716,11 @@
       <c r="C55" s="4"/>
     </row>
     <row r="57" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A57" s="122" t="s">
+      <c r="A57" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="137"/>
-      <c r="C57" s="122"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="126"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">

--- a/pengxiang-edu-vue/src/docs/数据库字段与页面展示设置1.xlsx
+++ b/pengxiang-edu-vue/src/docs/数据库字段与页面展示设置1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022_ChenEnlai\duYan\lab_Project\pengxiang\pengxiang-edu-vue\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E49E286-95AC-4243-9D66-5579B10C9129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6DF8AA-1C0D-46C2-9EB2-1E7F2F710F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="字段排布" sheetId="17" r:id="rId1"/>
@@ -2871,6 +2871,93 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2883,90 +2970,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3023,9 +3026,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3451,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64C59A9-CA3A-4B5B-8FFE-440363B87DDA}">
   <dimension ref="A1:W169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G58" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="G60" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3461,69 +3461,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="119" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="111" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="124" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="101" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="111" t="s">
         <v>438</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101" t="s">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111" t="s">
         <v>436</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111" t="s">
         <v>439</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="110" t="s">
+      <c r="K3" s="111"/>
+      <c r="L3" s="121" t="s">
         <v>465</v>
       </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
       <c r="Q3" s="61" t="s">
         <v>460</v>
       </c>
@@ -3571,10 +3571,10 @@
       <c r="L4" s="71" t="s">
         <v>482</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="123" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="94"/>
+      <c r="N4" s="123"/>
       <c r="O4" s="71" t="s">
         <v>480</v>
       </c>
@@ -4966,13 +4966,13 @@
       <c r="I32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="103" t="s">
+      <c r="J32" s="112" t="s">
         <v>493</v>
       </c>
-      <c r="K32" s="103" t="s">
+      <c r="K32" s="112" t="s">
         <v>494</v>
       </c>
-      <c r="L32" s="109" t="s">
+      <c r="L32" s="120" t="s">
         <v>468</v>
       </c>
       <c r="M32" s="14" t="s">
@@ -4989,9 +4989,9 @@
       <c r="I33" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="100"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="110"/>
       <c r="M33" s="14" t="s">
         <v>228</v>
       </c>
@@ -5006,9 +5006,9 @@
       <c r="I34" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="100"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="110"/>
       <c r="M34" s="66" t="s">
         <v>442</v>
       </c>
@@ -5029,16 +5029,16 @@
       <c r="I35" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="109" t="s">
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="120" t="s">
         <v>475</v>
       </c>
-      <c r="N35" s="109" t="s">
+      <c r="N35" s="120" t="s">
         <v>476</v>
       </c>
-      <c r="O35" s="109" t="s">
+      <c r="O35" s="120" t="s">
         <v>477</v>
       </c>
       <c r="T35" s="14" t="s">
@@ -5052,12 +5052,12 @@
       <c r="I36" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="110"/>
       <c r="T36" s="38" t="s">
         <v>376</v>
       </c>
@@ -5066,12 +5066,12 @@
       <c r="I37" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
       <c r="T37" s="61" t="s">
         <v>548</v>
       </c>
@@ -5080,12 +5080,12 @@
       <c r="I38" s="75" t="s">
         <v>495</v>
       </c>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
       <c r="T38" s="38" t="s">
         <v>408</v>
       </c>
@@ -5094,12 +5094,12 @@
       <c r="I39" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
       <c r="T39" s="38" t="s">
         <v>414</v>
       </c>
@@ -5108,12 +5108,12 @@
       <c r="I40" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
       <c r="T40" s="38" t="s">
         <v>415</v>
       </c>
@@ -5122,12 +5122,12 @@
       <c r="I41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
       <c r="T41" s="38" t="s">
         <v>416</v>
       </c>
@@ -5148,59 +5148,59 @@
       <c r="L42" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
-      <c r="O42" s="100"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="110"/>
       <c r="T42" s="38" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="H43" s="103" t="s">
+      <c r="H43" s="112" t="s">
         <v>504</v>
       </c>
       <c r="I43" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="J43" s="106" t="s">
+      <c r="J43" s="115" t="s">
         <v>492</v>
       </c>
-      <c r="K43" s="106" t="s">
+      <c r="K43" s="115" t="s">
         <v>492</v>
       </c>
-      <c r="L43" s="99" t="s">
+      <c r="L43" s="118" t="s">
         <v>467</v>
       </c>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
-      <c r="O43" s="100"/>
+      <c r="M43" s="110"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="110"/>
       <c r="T43" s="38" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="H44" s="104"/>
+      <c r="H44" s="113"/>
       <c r="I44" s="75" t="s">
         <v>496</v>
       </c>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="110"/>
       <c r="T44" s="38" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="H45" s="104"/>
+      <c r="H45" s="113"/>
       <c r="I45" s="76" t="s">
         <v>371</v>
       </c>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="100"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="110"/>
       <c r="M45" s="66" t="s">
         <v>444</v>
       </c>
@@ -5233,53 +5233,53 @@
       <c r="G46" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="H46" s="104"/>
+      <c r="H46" s="113"/>
       <c r="I46" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M46" s="99" t="s">
+      <c r="M46" s="118" t="s">
         <v>467</v>
       </c>
-      <c r="N46" s="99" t="s">
+      <c r="N46" s="118" t="s">
         <v>467</v>
       </c>
-      <c r="Q46" s="99" t="s">
+      <c r="Q46" s="118" t="s">
         <v>553</v>
       </c>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
       <c r="T46" s="38" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="112" t="s">
         <v>443</v>
       </c>
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="112" t="s">
         <v>445</v>
       </c>
-      <c r="C47" s="103" t="s">
+      <c r="C47" s="112" t="s">
         <v>469</v>
       </c>
-      <c r="D47" s="103" t="s">
+      <c r="D47" s="112" t="s">
         <v>470</v>
       </c>
-      <c r="E47" s="103" t="s">
+      <c r="E47" s="112" t="s">
         <v>471</v>
       </c>
-      <c r="F47" s="103" t="s">
+      <c r="F47" s="112" t="s">
         <v>472</v>
       </c>
-      <c r="G47" s="103" t="s">
+      <c r="G47" s="112" t="s">
         <v>473</v>
       </c>
-      <c r="H47" s="104"/>
+      <c r="H47" s="113"/>
       <c r="I47" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M47" s="100"/>
-      <c r="N47" s="100"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
       <c r="Q47" s="86" t="s">
         <v>554</v>
       </c>
@@ -5294,19 +5294,19 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A48" s="104"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
       <c r="I48" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="M48" s="100"/>
-      <c r="N48" s="100"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
       <c r="Q48" s="43" t="s">
         <v>550</v>
       </c>
@@ -5321,14 +5321,14 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A49" s="104"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
       <c r="I49" s="15" t="s">
         <v>62</v>
       </c>
@@ -5346,14 +5346,14 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A50" s="104"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
       <c r="I50" s="77" t="s">
         <v>63</v>
       </c>
@@ -5372,14 +5372,14 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A51" s="104"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
       <c r="I51" s="75" t="s">
         <v>497</v>
       </c>
@@ -5394,14 +5394,14 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A52" s="104"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="105"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="114"/>
       <c r="I52" s="38" t="s">
         <v>364</v>
       </c>
@@ -5419,13 +5419,13 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A53" s="104"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
+      <c r="A53" s="113"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
       <c r="H53" s="66" t="s">
         <v>444</v>
       </c>
@@ -5446,20 +5446,20 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A54" s="104"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="106" t="s">
+      <c r="A54" s="113"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="115" t="s">
         <v>505</v>
       </c>
       <c r="I54" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="J54" s="145" t="s">
+      <c r="J54" s="94" t="s">
         <v>587</v>
       </c>
       <c r="Q54" s="42" t="s">
@@ -5473,14 +5473,14 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A55" s="104"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="107"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="116"/>
       <c r="I55" s="38" t="s">
         <v>338</v>
       </c>
@@ -5498,14 +5498,14 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A56" s="105"/>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="108"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="117"/>
       <c r="I56" s="38" t="s">
         <v>337</v>
       </c>
@@ -5555,25 +5555,25 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A58" s="99" t="s">
+      <c r="A58" s="118" t="s">
         <v>447</v>
       </c>
-      <c r="B58" s="99" t="s">
+      <c r="B58" s="118" t="s">
         <v>446</v>
       </c>
-      <c r="C58" s="99" t="s">
+      <c r="C58" s="118" t="s">
         <v>455</v>
       </c>
-      <c r="D58" s="99" t="s">
+      <c r="D58" s="118" t="s">
         <v>455</v>
       </c>
-      <c r="E58" s="99" t="s">
+      <c r="E58" s="118" t="s">
         <v>455</v>
       </c>
-      <c r="F58" s="99" t="s">
+      <c r="F58" s="118" t="s">
         <v>461</v>
       </c>
-      <c r="G58" s="106" t="s">
+      <c r="G58" s="115" t="s">
         <v>461</v>
       </c>
       <c r="I58" s="38" t="s">
@@ -5590,13 +5590,13 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A59" s="100"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="107"/>
+      <c r="A59" s="110"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="116"/>
       <c r="I59" s="38" t="s">
         <v>350</v>
       </c>
@@ -5611,13 +5611,13 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="108"/>
+      <c r="A60" s="110"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="117"/>
       <c r="I60" s="38" t="s">
         <v>368</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="Q75" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="R75" s="97" t="s">
+      <c r="R75" s="126" t="s">
         <v>584</v>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
       <c r="Q76" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="R76" s="98"/>
+      <c r="R76" s="99"/>
     </row>
     <row r="77" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I77" s="14" t="s">
@@ -5785,7 +5785,7 @@
       <c r="Q77" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="R77" s="98"/>
+      <c r="R77" s="99"/>
     </row>
     <row r="78" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I78" s="14" t="s">
@@ -5794,7 +5794,7 @@
       <c r="Q78" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R78" s="98"/>
+      <c r="R78" s="99"/>
     </row>
     <row r="79" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I79" s="14" t="s">
@@ -5803,7 +5803,7 @@
       <c r="Q79" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="R79" s="98"/>
+      <c r="R79" s="99"/>
     </row>
     <row r="80" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I80" s="14" t="s">
@@ -5868,7 +5868,7 @@
       </c>
     </row>
     <row r="88" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I88" s="103" t="s">
+      <c r="I88" s="112" t="s">
         <v>503</v>
       </c>
       <c r="Q88" s="38" t="s">
@@ -5876,55 +5876,55 @@
       </c>
     </row>
     <row r="89" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I89" s="104"/>
+      <c r="I89" s="113"/>
       <c r="Q89" s="38" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="90" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I90" s="104"/>
+      <c r="I90" s="113"/>
       <c r="Q90" s="38" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="91" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I91" s="104"/>
+      <c r="I91" s="113"/>
       <c r="Q91" s="93" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="92" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I92" s="104"/>
+      <c r="I92" s="113"/>
       <c r="Q92" s="90" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="93" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I93" s="104"/>
+      <c r="I93" s="113"/>
       <c r="Q93" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="94" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I94" s="104"/>
+      <c r="I94" s="113"/>
       <c r="Q94" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="95" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I95" s="104"/>
+      <c r="I95" s="113"/>
       <c r="Q95" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="96" spans="9:17" x14ac:dyDescent="0.15">
-      <c r="I96" s="104"/>
+      <c r="I96" s="113"/>
       <c r="Q96" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="I97" s="105"/>
+      <c r="I97" s="114"/>
       <c r="Q97" s="14" t="s">
         <v>119</v>
       </c>
@@ -5938,7 +5938,7 @@
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="I99" s="106" t="s">
+      <c r="I99" s="115" t="s">
         <v>501</v>
       </c>
       <c r="Q99" s="14" t="s">
@@ -5946,26 +5946,26 @@
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="I100" s="107"/>
+      <c r="I100" s="116"/>
       <c r="Q100" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="I101" s="108"/>
+      <c r="I101" s="117"/>
       <c r="Q101" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A102" s="125" t="s">
+      <c r="A102" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="110"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="110"/>
+      <c r="F102" s="110"/>
       <c r="I102" s="42" t="s">
         <v>585</v>
       </c>
@@ -5974,12 +5974,12 @@
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A103" s="100"/>
-      <c r="B103" s="100"/>
-      <c r="C103" s="100"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="100"/>
+      <c r="A103" s="110"/>
+      <c r="B103" s="110"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="110"/>
+      <c r="F103" s="110"/>
       <c r="I103" s="91" t="s">
         <v>586</v>
       </c>
@@ -5988,21 +5988,21 @@
       </c>
     </row>
     <row r="104" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="101" t="s">
+      <c r="A104" s="111" t="s">
         <v>385</v>
       </c>
-      <c r="B104" s="101"/>
-      <c r="C104" s="101" t="s">
+      <c r="B104" s="111"/>
+      <c r="C104" s="111" t="s">
         <v>508</v>
       </c>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101" t="s">
+      <c r="D104" s="111"/>
+      <c r="E104" s="111" t="s">
         <v>397</v>
       </c>
-      <c r="F104" s="101"/>
+      <c r="F104" s="111"/>
       <c r="G104"/>
       <c r="H104"/>
-      <c r="I104" s="145" t="s">
+      <c r="I104" s="94" t="s">
         <v>587</v>
       </c>
       <c r="K104"/>
@@ -6369,10 +6369,10 @@
       </c>
     </row>
     <row r="121" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="112" t="s">
+      <c r="A121" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="B121" s="113"/>
+      <c r="B121" s="96"/>
       <c r="C121" s="52"/>
       <c r="D121" s="14" t="s">
         <v>147</v>
@@ -6388,10 +6388,10 @@
       </c>
     </row>
     <row r="122" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="114" t="s">
+      <c r="A122" s="103" t="s">
         <v>517</v>
       </c>
-      <c r="B122" s="115"/>
+      <c r="B122" s="104"/>
       <c r="C122" s="52"/>
       <c r="D122" s="14" t="s">
         <v>148</v>
@@ -6407,8 +6407,8 @@
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A123" s="116"/>
-      <c r="B123" s="117"/>
+      <c r="A123" s="105"/>
+      <c r="B123" s="106"/>
       <c r="C123" s="52"/>
       <c r="D123" s="14" t="s">
         <v>149</v>
@@ -6424,8 +6424,8 @@
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A124" s="116"/>
-      <c r="B124" s="117"/>
+      <c r="A124" s="105"/>
+      <c r="B124" s="106"/>
       <c r="C124" s="52"/>
       <c r="D124" s="14" t="s">
         <v>150</v>
@@ -6441,8 +6441,8 @@
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A125" s="116"/>
-      <c r="B125" s="117"/>
+      <c r="A125" s="105"/>
+      <c r="B125" s="106"/>
       <c r="C125" s="52"/>
       <c r="D125" s="14" t="s">
         <v>151</v>
@@ -6455,8 +6455,8 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A126" s="116"/>
-      <c r="B126" s="117"/>
+      <c r="A126" s="105"/>
+      <c r="B126" s="106"/>
       <c r="C126" s="52"/>
       <c r="D126" s="14" t="s">
         <v>152</v>
@@ -6469,8 +6469,8 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A127" s="116"/>
-      <c r="B127" s="117"/>
+      <c r="A127" s="105"/>
+      <c r="B127" s="106"/>
       <c r="C127" s="52"/>
       <c r="D127" s="14" t="s">
         <v>153</v>
@@ -6483,8 +6483,8 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A128" s="116"/>
-      <c r="B128" s="117"/>
+      <c r="A128" s="105"/>
+      <c r="B128" s="106"/>
       <c r="C128" s="52"/>
       <c r="D128" s="15" t="s">
         <v>154</v>
@@ -6497,8 +6497,8 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" s="116"/>
-      <c r="B129" s="117"/>
+      <c r="A129" s="105"/>
+      <c r="B129" s="106"/>
       <c r="C129" s="52"/>
       <c r="D129" s="15" t="s">
         <v>155</v>
@@ -6511,8 +6511,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="116"/>
-      <c r="B130" s="117"/>
+      <c r="A130" s="105"/>
+      <c r="B130" s="106"/>
       <c r="C130" s="52"/>
       <c r="D130" s="15" t="s">
         <v>156</v>
@@ -6525,8 +6525,8 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="118"/>
-      <c r="B131" s="119"/>
+      <c r="A131" s="107"/>
+      <c r="B131" s="108"/>
       <c r="C131" s="52"/>
       <c r="D131" s="52"/>
       <c r="E131" s="8" t="s">
@@ -6537,14 +6537,14 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="112" t="s">
+      <c r="A132" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="B132" s="113"/>
-      <c r="C132" s="112" t="s">
+      <c r="B132" s="96"/>
+      <c r="C132" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="D132" s="113"/>
+      <c r="D132" s="96"/>
       <c r="E132" s="72" t="s">
         <v>404</v>
       </c>
@@ -6553,14 +6553,14 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="120" t="s">
+      <c r="A133" s="97" t="s">
         <v>516</v>
       </c>
-      <c r="B133" s="121"/>
-      <c r="C133" s="114" t="s">
+      <c r="B133" s="98"/>
+      <c r="C133" s="103" t="s">
         <v>518</v>
       </c>
-      <c r="D133" s="115"/>
+      <c r="D133" s="104"/>
       <c r="E133" s="72" t="s">
         <v>520</v>
       </c>
@@ -6569,10 +6569,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="98"/>
-      <c r="B134" s="122"/>
-      <c r="C134" s="116"/>
-      <c r="D134" s="117"/>
+      <c r="A134" s="99"/>
+      <c r="B134" s="100"/>
+      <c r="C134" s="105"/>
+      <c r="D134" s="106"/>
       <c r="E134" s="72" t="s">
         <v>521</v>
       </c>
@@ -6581,10 +6581,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="123"/>
-      <c r="B135" s="124"/>
-      <c r="C135" s="116"/>
-      <c r="D135" s="117"/>
+      <c r="A135" s="101"/>
+      <c r="B135" s="102"/>
+      <c r="C135" s="105"/>
+      <c r="D135" s="106"/>
       <c r="E135" s="72" t="s">
         <v>522</v>
       </c>
@@ -6593,8 +6593,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C136" s="116"/>
-      <c r="D136" s="117"/>
+      <c r="C136" s="105"/>
+      <c r="D136" s="106"/>
       <c r="E136" s="72" t="s">
         <v>523</v>
       </c>
@@ -6603,8 +6603,8 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C137" s="116"/>
-      <c r="D137" s="117"/>
+      <c r="C137" s="105"/>
+      <c r="D137" s="106"/>
       <c r="E137" s="72" t="s">
         <v>524</v>
       </c>
@@ -6613,8 +6613,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C138" s="116"/>
-      <c r="D138" s="117"/>
+      <c r="C138" s="105"/>
+      <c r="D138" s="106"/>
       <c r="E138" s="72" t="s">
         <v>525</v>
       </c>
@@ -6623,8 +6623,8 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C139" s="116"/>
-      <c r="D139" s="117"/>
+      <c r="C139" s="105"/>
+      <c r="D139" s="106"/>
       <c r="E139" s="72" t="s">
         <v>526</v>
       </c>
@@ -6633,8 +6633,8 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C140" s="116"/>
-      <c r="D140" s="117"/>
+      <c r="C140" s="105"/>
+      <c r="D140" s="106"/>
       <c r="E140" s="72" t="s">
         <v>527</v>
       </c>
@@ -6643,8 +6643,8 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C141" s="116"/>
-      <c r="D141" s="117"/>
+      <c r="C141" s="105"/>
+      <c r="D141" s="106"/>
       <c r="E141" s="72" t="s">
         <v>528</v>
       </c>
@@ -6653,8 +6653,8 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C142" s="118"/>
-      <c r="D142" s="119"/>
+      <c r="C142" s="107"/>
+      <c r="D142" s="108"/>
       <c r="E142" s="72" t="s">
         <v>529</v>
       </c>
@@ -6663,10 +6663,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C143" s="112" t="s">
+      <c r="C143" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="D143" s="113"/>
+      <c r="D143" s="96"/>
       <c r="E143" s="38" t="s">
         <v>530</v>
       </c>
@@ -6675,10 +6675,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C144" s="120" t="s">
+      <c r="C144" s="97" t="s">
         <v>516</v>
       </c>
-      <c r="D144" s="121"/>
+      <c r="D144" s="98"/>
       <c r="E144" s="38" t="s">
         <v>531</v>
       </c>
@@ -6687,15 +6687,15 @@
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C145" s="98"/>
-      <c r="D145" s="122"/>
+      <c r="C145" s="99"/>
+      <c r="D145" s="100"/>
       <c r="F145" s="38" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C146" s="123"/>
-      <c r="D146" s="124"/>
+      <c r="C146" s="101"/>
+      <c r="D146" s="102"/>
       <c r="F146" s="38" t="s">
         <v>521</v>
       </c>
@@ -6741,91 +6741,98 @@
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E155" s="112" t="s">
+      <c r="E155" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="F155" s="113"/>
+      <c r="F155" s="96"/>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E156" s="114" t="s">
+      <c r="E156" s="103" t="s">
         <v>536</v>
       </c>
-      <c r="F156" s="115"/>
+      <c r="F156" s="104"/>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E157" s="116"/>
-      <c r="F157" s="117"/>
+      <c r="E157" s="105"/>
+      <c r="F157" s="106"/>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E158" s="116"/>
-      <c r="F158" s="117"/>
+      <c r="E158" s="105"/>
+      <c r="F158" s="106"/>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E159" s="116"/>
-      <c r="F159" s="117"/>
+      <c r="E159" s="105"/>
+      <c r="F159" s="106"/>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E160" s="116"/>
-      <c r="F160" s="117"/>
+      <c r="E160" s="105"/>
+      <c r="F160" s="106"/>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E161" s="116"/>
-      <c r="F161" s="117"/>
+      <c r="E161" s="105"/>
+      <c r="F161" s="106"/>
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E162" s="116"/>
-      <c r="F162" s="117"/>
+      <c r="E162" s="105"/>
+      <c r="F162" s="106"/>
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E163" s="116"/>
-      <c r="F163" s="117"/>
+      <c r="E163" s="105"/>
+      <c r="F163" s="106"/>
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E164" s="116"/>
-      <c r="F164" s="117"/>
+      <c r="E164" s="105"/>
+      <c r="F164" s="106"/>
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E165" s="118"/>
-      <c r="F165" s="119"/>
+      <c r="E165" s="107"/>
+      <c r="F165" s="108"/>
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E166" s="112" t="s">
+      <c r="E166" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="F166" s="113"/>
+      <c r="F166" s="96"/>
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E167" s="120" t="s">
+      <c r="E167" s="97" t="s">
         <v>516</v>
       </c>
-      <c r="F167" s="121"/>
+      <c r="F167" s="98"/>
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E168" s="98"/>
-      <c r="F168" s="122"/>
+      <c r="E168" s="99"/>
+      <c r="F168" s="100"/>
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E169" s="123"/>
-      <c r="F169" s="124"/>
+      <c r="E169" s="101"/>
+      <c r="F169" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F169"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D146"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F165"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B135"/>
-    <mergeCell ref="A102:F103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G47:G56"/>
+    <mergeCell ref="E47:E56"/>
+    <mergeCell ref="F47:F56"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="R75:R79"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="N46:N48"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="J32:J41"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K32:K41"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="M35:M44"/>
+    <mergeCell ref="N35:N44"/>
+    <mergeCell ref="O35:O44"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L32:L41"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="I88:I97"/>
     <mergeCell ref="I99:I101"/>
     <mergeCell ref="E58:E60"/>
@@ -6842,29 +6849,22 @@
     <mergeCell ref="F58:F60"/>
     <mergeCell ref="D47:D56"/>
     <mergeCell ref="C47:C56"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="J32:J41"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K32:K41"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="M35:M44"/>
-    <mergeCell ref="N35:N44"/>
-    <mergeCell ref="O35:O44"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L32:L41"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R75:R79"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="N46:N48"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G47:G56"/>
-    <mergeCell ref="E47:E56"/>
-    <mergeCell ref="F47:F56"/>
-    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B135"/>
+    <mergeCell ref="A102:F103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F169"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D146"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F165"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6890,54 +6890,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="127" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="126"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="127"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -7364,11 +7364,11 @@
       <c r="C60" s="4"/>
     </row>
     <row r="62" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A62" s="126" t="s">
+      <c r="A62" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="141"/>
-      <c r="C62" s="126"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="127"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
@@ -7689,11 +7689,11 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="127" t="s">
         <v>320</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="127"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -7824,11 +7824,11 @@
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="126"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="127"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
@@ -7977,11 +7977,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
@@ -8011,7 +8011,7 @@
         <v>323</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="129" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
         <v>324</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="E5" s="129"/>
+      <c r="E5" s="130"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -8033,7 +8033,7 @@
         <v>325</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="E6" s="129"/>
+      <c r="E6" s="130"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -8043,7 +8043,7 @@
         <v>322</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="E7" s="129"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -8053,7 +8053,7 @@
         <v>326</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="E8" s="129"/>
+      <c r="E8" s="130"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -8063,7 +8063,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="E9" s="129"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="E10" s="129"/>
+      <c r="E10" s="130"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
@@ -8079,18 +8079,18 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="130"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E12" s="129"/>
+      <c r="E12" s="130"/>
     </row>
     <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="128" t="s">
         <v>389</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="E13" s="129"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="E13" s="130"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
@@ -8102,7 +8102,7 @@
       <c r="C14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="129"/>
+      <c r="E14" s="130"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
@@ -8112,7 +8112,7 @@
         <v>349</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="E15" s="129"/>
+      <c r="E15" s="130"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
@@ -8124,7 +8124,7 @@
       <c r="C16" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="129"/>
+      <c r="E16" s="130"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
@@ -8136,7 +8136,7 @@
       <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="129"/>
+      <c r="E17" s="130"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
@@ -8676,11 +8676,11 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="127" t="s">
+      <c r="A71" s="128" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="126"/>
-      <c r="C71" s="126"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="127"/>
     </row>
     <row r="72" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
@@ -8791,24 +8791,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="131" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="134" t="s">
         <v>432</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="136" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="132"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="136"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="137"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
@@ -9300,11 +9300,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
@@ -9673,11 +9673,11 @@
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A42" s="127" t="s">
+      <c r="A42" s="128" t="s">
         <v>397</v>
       </c>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="127"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
@@ -10146,11 +10146,11 @@
       <c r="C94" s="4"/>
     </row>
     <row r="96" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="126" t="s">
+      <c r="A96" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="B96" s="126"/>
-      <c r="C96" s="126"/>
+      <c r="B96" s="127"/>
+      <c r="C96" s="127"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
@@ -10771,11 +10771,11 @@
       <c r="C157" s="4"/>
     </row>
     <row r="158" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A158" s="127" t="s">
+      <c r="A158" s="128" t="s">
         <v>385</v>
       </c>
-      <c r="B158" s="126"/>
-      <c r="C158" s="126"/>
+      <c r="B158" s="127"/>
+      <c r="C158" s="127"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="13" t="s">
@@ -10787,7 +10787,7 @@
       <c r="C159" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D159" s="137" t="s">
+      <c r="D159" s="138" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10799,7 +10799,7 @@
         <v>13</v>
       </c>
       <c r="C160" s="4"/>
-      <c r="D160" s="138"/>
+      <c r="D160" s="139"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
@@ -10809,7 +10809,7 @@
         <v>110</v>
       </c>
       <c r="C161" s="4"/>
-      <c r="D161" s="138"/>
+      <c r="D161" s="139"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="4">
@@ -10819,7 +10819,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="4"/>
-      <c r="D162" s="138"/>
+      <c r="D162" s="139"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
@@ -10829,7 +10829,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="4"/>
-      <c r="D163" s="138"/>
+      <c r="D163" s="139"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
@@ -10839,7 +10839,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="4"/>
-      <c r="D164" s="138"/>
+      <c r="D164" s="139"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
@@ -10849,7 +10849,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="4"/>
-      <c r="D165" s="138"/>
+      <c r="D165" s="139"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
@@ -10938,11 +10938,11 @@
       <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A176" s="126" t="s">
+      <c r="A176" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="B176" s="126"/>
-      <c r="C176" s="126"/>
+      <c r="B176" s="127"/>
+      <c r="C176" s="127"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="13" t="s">
@@ -11167,12 +11167,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="142" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="143" t="s">
         <v>379</v>
       </c>
     </row>
@@ -11186,7 +11186,7 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="129"/>
+      <c r="D2" s="130"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -11198,7 +11198,7 @@
       <c r="C3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="129"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
@@ -11210,7 +11210,7 @@
       <c r="C4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="129"/>
+      <c r="D4" s="130"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
@@ -11220,7 +11220,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="129"/>
+      <c r="D5" s="130"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -11230,7 +11230,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="129"/>
+      <c r="D6" s="130"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -11240,7 +11240,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="129"/>
+      <c r="D7" s="130"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -11250,7 +11250,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="129"/>
+      <c r="D8" s="130"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="129"/>
+      <c r="D9" s="130"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="129"/>
+      <c r="D10" s="130"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="129"/>
+      <c r="D11" s="130"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="129"/>
+      <c r="D12" s="130"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -11290,7 +11290,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="129"/>
+      <c r="D13" s="130"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
@@ -11298,14 +11298,14 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="129"/>
+      <c r="D14" s="130"/>
     </row>
     <row r="15" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="126"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="127"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -11697,11 +11697,11 @@
   </cols>
   <sheetData>
     <row r="15" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
@@ -11924,11 +11924,11 @@
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="128" t="s">
         <v>380</v>
       </c>
-      <c r="B40" s="126"/>
-      <c r="C40" s="126"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
@@ -12173,11 +12173,11 @@
       <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="126" t="s">
+      <c r="A67" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="B67" s="126"/>
-      <c r="C67" s="126"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="127"/>
     </row>
     <row r="68" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
@@ -12480,11 +12480,11 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="128" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -12616,11 +12616,11 @@
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="127" t="s">
+      <c r="A26" s="128" t="s">
         <v>355</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
@@ -12937,11 +12937,11 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="144" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
@@ -13266,11 +13266,11 @@
       <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="126"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="127"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -13484,11 +13484,11 @@
       <c r="C28" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="127" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="126"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="127"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -13716,11 +13716,11 @@
       <c r="C55" s="4"/>
     </row>
     <row r="57" spans="1:3" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="127" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="141"/>
-      <c r="C57" s="126"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="127"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
